--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LN$LGFP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LN$LGFP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DA84E-F745-423B-8089-DC0D64E3E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91710A6-C52C-4280-94B2-0763B244256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
   <si>
     <t>LN$LGFP</t>
   </si>
@@ -243,6 +243,22 @@
   </si>
   <si>
     <t>TFRNMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為數值格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" activeCellId="1" sqref="C18 C19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -636,21 +652,22 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="3.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="30.625" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.375" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="30.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +680,11 @@
       <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -680,38 +700,38 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -727,23 +747,23 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -759,38 +779,38 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -806,38 +826,38 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -853,23 +873,23 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -885,23 +905,26 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -917,23 +940,23 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -949,23 +972,26 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -981,23 +1007,23 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1013,23 +1039,26 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1045,23 +1074,23 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -1081,7 +1110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1097,23 +1126,23 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1153,7 +1182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1169,38 +1198,38 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1216,23 +1245,23 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -1250,7 +1279,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
